--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.388946</v>
+        <v>1.55402</v>
       </c>
       <c r="N2">
-        <v>0.777892</v>
+        <v>3.10804</v>
       </c>
       <c r="O2">
-        <v>0.03708650906155244</v>
+        <v>0.1137587622034715</v>
       </c>
       <c r="P2">
-        <v>0.03370939550185763</v>
+        <v>0.1028204020973636</v>
       </c>
       <c r="Q2">
-        <v>15.843698001903</v>
+        <v>42.02649574058</v>
       </c>
       <c r="R2">
-        <v>63.37479200761201</v>
+        <v>168.10598296232</v>
       </c>
       <c r="S2">
-        <v>0.002064929295898842</v>
+        <v>0.003016296633912853</v>
       </c>
       <c r="T2">
-        <v>0.001289946268371843</v>
+        <v>0.001843665731123245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.714673</v>
       </c>
       <c r="O3">
-        <v>0.02271500130313451</v>
+        <v>0.01743871075452517</v>
       </c>
       <c r="P3">
-        <v>0.03096984518609151</v>
+        <v>0.02364286342136175</v>
       </c>
       <c r="Q3">
-        <v>9.704057617350502</v>
+        <v>6.442474311872333</v>
       </c>
       <c r="R3">
-        <v>58.22434570410301</v>
+        <v>38.654845871234</v>
       </c>
       <c r="S3">
-        <v>0.00126474216188358</v>
+        <v>0.0004623848179234931</v>
       </c>
       <c r="T3">
-        <v>0.001185112804163188</v>
+        <v>0.0004239385976560928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.044414666666667</v>
+        <v>0.9237056666666666</v>
       </c>
       <c r="N4">
-        <v>3.133244</v>
+        <v>2.771117</v>
       </c>
       <c r="O4">
-        <v>0.09958630246705612</v>
+        <v>0.06761792852108241</v>
       </c>
       <c r="P4">
-        <v>0.1357768960213274</v>
+        <v>0.09167429125713955</v>
       </c>
       <c r="Q4">
-        <v>42.544184970214</v>
+        <v>24.98044572509767</v>
       </c>
       <c r="R4">
-        <v>255.2651098212841</v>
+        <v>149.882674350586</v>
       </c>
       <c r="S4">
-        <v>0.005544837695377827</v>
+        <v>0.001792879302127961</v>
       </c>
       <c r="T4">
-        <v>0.005195729491624117</v>
+        <v>0.001643805565511722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.997239</v>
+        <v>9.200113</v>
       </c>
       <c r="N5">
-        <v>15.994478</v>
+        <v>18.400226</v>
       </c>
       <c r="O5">
-        <v>0.7625471830045831</v>
+        <v>0.67347490187518</v>
       </c>
       <c r="P5">
-        <v>0.6931093066232342</v>
+        <v>0.6087175956559004</v>
       </c>
       <c r="Q5">
-        <v>325.7671747878646</v>
+        <v>248.805362741377</v>
       </c>
       <c r="R5">
-        <v>1303.068699151458</v>
+        <v>995.221450965508</v>
       </c>
       <c r="S5">
-        <v>0.04245764989845573</v>
+        <v>0.01785708669998963</v>
       </c>
       <c r="T5">
-        <v>0.02652298418116595</v>
+        <v>0.01091487436491259</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4452603333333334</v>
+        <v>1.05173</v>
       </c>
       <c r="N6">
-        <v>1.335781</v>
+        <v>3.15519</v>
       </c>
       <c r="O6">
-        <v>0.0424561542911266</v>
+        <v>0.07698968029514236</v>
       </c>
       <c r="P6">
-        <v>0.05788511777067625</v>
+        <v>0.1043802217775771</v>
       </c>
       <c r="Q6">
-        <v>18.1376598642485</v>
+        <v>28.44270110117</v>
       </c>
       <c r="R6">
-        <v>108.825959185491</v>
+        <v>170.65620660702</v>
       </c>
       <c r="S6">
-        <v>0.002363904260750037</v>
+        <v>0.002041369904367488</v>
       </c>
       <c r="T6">
-        <v>0.002215070622029805</v>
+        <v>0.00187163475315078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.373449</v>
+        <v>0.692869</v>
       </c>
       <c r="N7">
-        <v>1.120347</v>
+        <v>2.078607</v>
       </c>
       <c r="O7">
-        <v>0.03560884987254708</v>
+        <v>0.05072001635059852</v>
       </c>
       <c r="P7">
-        <v>0.04854943889681304</v>
+        <v>0.06876462579065737</v>
       </c>
       <c r="Q7">
-        <v>15.2124283965195</v>
+        <v>18.737761468501</v>
       </c>
       <c r="R7">
-        <v>91.27457037911701</v>
+        <v>112.426568811006</v>
       </c>
       <c r="S7">
-        <v>0.001982655125966398</v>
+        <v>0.001344833678101031</v>
       </c>
       <c r="T7">
-        <v>0.001857825291854897</v>
+        <v>0.00123301389118959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.388946</v>
+        <v>1.55402</v>
       </c>
       <c r="N8">
-        <v>0.777892</v>
+        <v>3.10804</v>
       </c>
       <c r="O8">
-        <v>0.03708650906155244</v>
+        <v>0.1137587622034715</v>
       </c>
       <c r="P8">
-        <v>0.03370939550185763</v>
+        <v>0.1028204020973636</v>
       </c>
       <c r="Q8">
-        <v>136.2835305303733</v>
+        <v>544.5160307981333</v>
       </c>
       <c r="R8">
-        <v>817.70118318224</v>
+        <v>3267.0961847888</v>
       </c>
       <c r="S8">
-        <v>0.01776200573293502</v>
+        <v>0.03908062858598284</v>
       </c>
       <c r="T8">
-        <v>0.01664369312269269</v>
+        <v>0.0358311653757661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.714673</v>
       </c>
       <c r="O9">
-        <v>0.02271500130313451</v>
+        <v>0.01743871075452517</v>
       </c>
       <c r="P9">
-        <v>0.03096984518609151</v>
+        <v>0.02364286342136175</v>
       </c>
       <c r="Q9">
         <v>83.47187837106223</v>
@@ -1013,10 +1013,10 @@
         <v>751.2469053395599</v>
       </c>
       <c r="S9">
-        <v>0.01087899599016647</v>
+        <v>0.005990886018933715</v>
       </c>
       <c r="T9">
-        <v>0.01529106623422551</v>
+        <v>0.008239136707569686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.044414666666667</v>
+        <v>0.9237056666666666</v>
       </c>
       <c r="N10">
-        <v>3.133244</v>
+        <v>2.771117</v>
       </c>
       <c r="O10">
-        <v>0.09958630246705612</v>
+        <v>0.06761792852108241</v>
       </c>
       <c r="P10">
-        <v>0.1357768960213274</v>
+        <v>0.09167429125713955</v>
       </c>
       <c r="Q10">
-        <v>365.9544464039645</v>
+        <v>323.6589897421377</v>
       </c>
       <c r="R10">
-        <v>3293.59001763568</v>
+        <v>2912.93090767924</v>
       </c>
       <c r="S10">
-        <v>0.04769530808105688</v>
+        <v>0.02322942953228895</v>
       </c>
       <c r="T10">
-        <v>0.06703854984306064</v>
+        <v>0.03194693488584343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.997239</v>
+        <v>9.200113</v>
       </c>
       <c r="N11">
-        <v>15.994478</v>
+        <v>18.400226</v>
       </c>
       <c r="O11">
-        <v>0.7625471830045831</v>
+        <v>0.67347490187518</v>
       </c>
       <c r="P11">
-        <v>0.6931093066232342</v>
+        <v>0.6087175956559004</v>
       </c>
       <c r="Q11">
-        <v>2802.167821279027</v>
+        <v>3223.645135618787</v>
       </c>
       <c r="R11">
-        <v>16813.00692767416</v>
+        <v>19341.87081371272</v>
       </c>
       <c r="S11">
-        <v>0.3652100933436814</v>
+        <v>0.23136523281687</v>
       </c>
       <c r="T11">
-        <v>0.3422161218905189</v>
+        <v>0.2121277527822908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4452603333333334</v>
+        <v>1.05173</v>
       </c>
       <c r="N12">
-        <v>1.335781</v>
+        <v>3.15519</v>
       </c>
       <c r="O12">
-        <v>0.0424561542911266</v>
+        <v>0.07698968029514236</v>
       </c>
       <c r="P12">
-        <v>0.05788511777067625</v>
+        <v>0.1043802217775771</v>
       </c>
       <c r="Q12">
-        <v>156.0156171597022</v>
+        <v>368.5176799985334</v>
       </c>
       <c r="R12">
-        <v>1404.14055443732</v>
+        <v>3316.6591199868</v>
       </c>
       <c r="S12">
-        <v>0.02033371366029018</v>
+        <v>0.02644899647542228</v>
       </c>
       <c r="T12">
-        <v>0.02858022584513475</v>
+        <v>0.03637473606580464</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.373449</v>
+        <v>0.692869</v>
       </c>
       <c r="N13">
-        <v>1.120347</v>
+        <v>2.078607</v>
       </c>
       <c r="O13">
-        <v>0.03560884987254708</v>
+        <v>0.05072001635059852</v>
       </c>
       <c r="P13">
-        <v>0.04854943889681304</v>
+        <v>0.06876462579065737</v>
       </c>
       <c r="Q13">
-        <v>130.85350715276</v>
+        <v>242.7756899802266</v>
       </c>
       <c r="R13">
-        <v>1177.68156437484</v>
+        <v>2184.98120982204</v>
       </c>
       <c r="S13">
-        <v>0.01705430388526646</v>
+        <v>0.01742432918993407</v>
       </c>
       <c r="T13">
-        <v>0.02397082327486255</v>
+        <v>0.0239633052239434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.388946</v>
+        <v>1.55402</v>
       </c>
       <c r="N14">
-        <v>0.777892</v>
+        <v>3.10804</v>
       </c>
       <c r="O14">
-        <v>0.03708650906155244</v>
+        <v>0.1137587622034715</v>
       </c>
       <c r="P14">
-        <v>0.03370939550185763</v>
+        <v>0.1028204020973636</v>
       </c>
       <c r="Q14">
-        <v>94.83619884668667</v>
+        <v>596.8875511716</v>
       </c>
       <c r="R14">
-        <v>569.01719308012</v>
+        <v>3581.3253070296</v>
       </c>
       <c r="S14">
-        <v>0.01236012232035034</v>
+        <v>0.04283940118483302</v>
       </c>
       <c r="T14">
-        <v>0.01158191737757435</v>
+        <v>0.03927740479085078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.714673</v>
       </c>
       <c r="O15">
-        <v>0.02271500130313451</v>
+        <v>0.01743871075452517</v>
       </c>
       <c r="P15">
-        <v>0.03096984518609151</v>
+        <v>0.02364286342136175</v>
       </c>
       <c r="Q15">
-        <v>58.08593029911445</v>
+        <v>91.50019880878</v>
       </c>
       <c r="R15">
-        <v>522.7733726920301</v>
+        <v>823.50178927902</v>
       </c>
       <c r="S15">
-        <v>0.007570413115661073</v>
+        <v>0.006567089090009173</v>
       </c>
       <c r="T15">
-        <v>0.01064065916346124</v>
+        <v>0.009031576399947136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.044414666666667</v>
+        <v>0.9237056666666666</v>
       </c>
       <c r="N16">
-        <v>3.133244</v>
+        <v>2.771117</v>
       </c>
       <c r="O16">
-        <v>0.09958630246705612</v>
+        <v>0.06761792852108241</v>
       </c>
       <c r="P16">
-        <v>0.1357768960213274</v>
+        <v>0.09167429125713955</v>
       </c>
       <c r="Q16">
-        <v>254.6582739156489</v>
+        <v>354.78849267062</v>
       </c>
       <c r="R16">
-        <v>2291.924465240841</v>
+        <v>3193.09643403558</v>
       </c>
       <c r="S16">
-        <v>0.03318993647747483</v>
+        <v>0.02546363472222814</v>
       </c>
       <c r="T16">
-        <v>0.04665040022494198</v>
+        <v>0.03501958923688499</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.997239</v>
+        <v>9.200113</v>
       </c>
       <c r="N17">
-        <v>15.994478</v>
+        <v>18.400226</v>
       </c>
       <c r="O17">
-        <v>0.7625471830045831</v>
+        <v>0.67347490187518</v>
       </c>
       <c r="P17">
-        <v>0.6931093066232342</v>
+        <v>0.6087175956559004</v>
       </c>
       <c r="Q17">
-        <v>1949.956415616763</v>
+        <v>3533.69513846154</v>
       </c>
       <c r="R17">
-        <v>11699.73849370058</v>
+        <v>21202.17083076924</v>
       </c>
       <c r="S17">
-        <v>0.2541402977921773</v>
+        <v>0.2536179275381254</v>
       </c>
       <c r="T17">
-        <v>0.2381393852789727</v>
+        <v>0.2325301877855938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.4452603333333334</v>
+        <v>1.05173</v>
       </c>
       <c r="N18">
-        <v>1.335781</v>
+        <v>3.15519</v>
       </c>
       <c r="O18">
-        <v>0.0424561542911266</v>
+        <v>0.07698968029514236</v>
       </c>
       <c r="P18">
-        <v>0.05788511777067625</v>
+        <v>0.1043802217775771</v>
       </c>
       <c r="Q18">
-        <v>108.5672497224345</v>
+        <v>403.9616891634</v>
       </c>
       <c r="R18">
-        <v>977.1052475019102</v>
+        <v>3635.6552024706</v>
       </c>
       <c r="S18">
-        <v>0.01414970763139347</v>
+        <v>0.02899285942788666</v>
       </c>
       <c r="T18">
-        <v>0.019888243067847</v>
+        <v>0.03987325607844316</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.373449</v>
+        <v>0.692869</v>
       </c>
       <c r="N19">
-        <v>1.120347</v>
+        <v>2.078607</v>
       </c>
       <c r="O19">
-        <v>0.03560884987254708</v>
+        <v>0.05072001635059852</v>
       </c>
       <c r="P19">
-        <v>0.04854943889681304</v>
+        <v>0.06876462579065737</v>
       </c>
       <c r="Q19">
-        <v>91.05758543113001</v>
+        <v>266.12584181202</v>
       </c>
       <c r="R19">
-        <v>819.51826888017</v>
+        <v>2395.13257630818</v>
       </c>
       <c r="S19">
-        <v>0.01186765083176717</v>
+        <v>0.01910020016443422</v>
       </c>
       <c r="T19">
-        <v>0.01668067853662628</v>
+        <v>0.02626809453549373</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.388946</v>
+        <v>1.55402</v>
       </c>
       <c r="N20">
-        <v>0.777892</v>
+        <v>3.10804</v>
       </c>
       <c r="O20">
-        <v>0.03708650906155244</v>
+        <v>0.1137587622034715</v>
       </c>
       <c r="P20">
-        <v>0.03370939550185763</v>
+        <v>0.1028204020973636</v>
       </c>
       <c r="Q20">
-        <v>9.755675424693999</v>
+        <v>25.42795994596</v>
       </c>
       <c r="R20">
-        <v>39.022701698776</v>
+        <v>101.71183978384</v>
       </c>
       <c r="S20">
-        <v>0.00127146957631428</v>
+        <v>0.001824997983788869</v>
       </c>
       <c r="T20">
-        <v>0.0007942777694967051</v>
+        <v>0.001115502435752069</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.714673</v>
       </c>
       <c r="O21">
-        <v>0.02271500130313451</v>
+        <v>0.01743871075452517</v>
       </c>
       <c r="P21">
-        <v>0.03096984518609151</v>
+        <v>0.02364286342136175</v>
       </c>
       <c r="Q21">
-        <v>5.975223486715667</v>
+        <v>3.897992822584667</v>
       </c>
       <c r="R21">
-        <v>35.851340920294</v>
+        <v>23.387956935508</v>
       </c>
       <c r="S21">
-        <v>0.0007787584707673694</v>
+        <v>0.0002797640493833933</v>
       </c>
       <c r="T21">
-        <v>0.0007297271039675414</v>
+        <v>0.0002565023205191176</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.044414666666667</v>
+        <v>0.9237056666666666</v>
       </c>
       <c r="N22">
-        <v>3.133244</v>
+        <v>2.771117</v>
       </c>
       <c r="O22">
-        <v>0.09958630246705612</v>
+        <v>0.06761792852108241</v>
       </c>
       <c r="P22">
-        <v>0.1357768960213274</v>
+        <v>0.09167429125713955</v>
       </c>
       <c r="Q22">
-        <v>26.19636272590533</v>
+        <v>15.11431686455533</v>
       </c>
       <c r="R22">
-        <v>157.178176355432</v>
+        <v>90.68590118733201</v>
       </c>
       <c r="S22">
-        <v>0.003414205246288912</v>
+        <v>0.00108477431389623</v>
       </c>
       <c r="T22">
-        <v>0.003199243668284202</v>
+        <v>0.0009945778571877986</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.997239</v>
+        <v>9.200113</v>
       </c>
       <c r="N23">
-        <v>15.994478</v>
+        <v>18.400226</v>
       </c>
       <c r="O23">
-        <v>0.7625471830045831</v>
+        <v>0.67347490187518</v>
       </c>
       <c r="P23">
-        <v>0.6931093066232342</v>
+        <v>0.6087175956559004</v>
       </c>
       <c r="Q23">
-        <v>200.589459662021</v>
+        <v>150.538670584874</v>
       </c>
       <c r="R23">
-        <v>802.357838648084</v>
+        <v>602.154682339496</v>
       </c>
       <c r="S23">
-        <v>0.02614307920126197</v>
+        <v>0.01080435752154397</v>
       </c>
       <c r="T23">
-        <v>0.01633139087444545</v>
+        <v>0.006604000244973856</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4452603333333334</v>
+        <v>1.05173</v>
       </c>
       <c r="N24">
-        <v>1.335781</v>
+        <v>3.15519</v>
       </c>
       <c r="O24">
-        <v>0.0424561542911266</v>
+        <v>0.07698968029514236</v>
       </c>
       <c r="P24">
-        <v>0.05788511777067625</v>
+        <v>0.1043802217775771</v>
       </c>
       <c r="Q24">
-        <v>11.16817062391967</v>
+        <v>17.20914036754</v>
       </c>
       <c r="R24">
-        <v>67.009023743518</v>
+        <v>103.25484220524</v>
       </c>
       <c r="S24">
-        <v>0.001455561870729841</v>
+        <v>0.001235122539922438</v>
       </c>
       <c r="T24">
-        <v>0.001363918324415315</v>
+        <v>0.001132424978526843</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.373449</v>
+        <v>0.692869</v>
       </c>
       <c r="N25">
-        <v>1.120347</v>
+        <v>2.078607</v>
       </c>
       <c r="O25">
-        <v>0.03560884987254708</v>
+        <v>0.05072001635059852</v>
       </c>
       <c r="P25">
-        <v>0.04854943889681304</v>
+        <v>0.06876462579065737</v>
       </c>
       <c r="Q25">
-        <v>9.366974417210999</v>
+        <v>11.337206200562</v>
       </c>
       <c r="R25">
-        <v>56.20184650326599</v>
+        <v>68.02323720337201</v>
       </c>
       <c r="S25">
-        <v>0.001220809680019827</v>
+        <v>0.0008136861353327563</v>
       </c>
       <c r="T25">
-        <v>0.001143946352735759</v>
+        <v>0.0007460300290444461</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.388946</v>
+        <v>1.55402</v>
       </c>
       <c r="N26">
-        <v>0.777892</v>
+        <v>3.10804</v>
       </c>
       <c r="O26">
-        <v>0.03708650906155244</v>
+        <v>0.1137587622034715</v>
       </c>
       <c r="P26">
-        <v>0.03370939550185763</v>
+        <v>0.1028204020973636</v>
       </c>
       <c r="Q26">
-        <v>8.880445020842</v>
+        <v>67.60681698740666</v>
       </c>
       <c r="R26">
-        <v>53.282670125052</v>
+        <v>405.64090192444</v>
       </c>
       <c r="S26">
-        <v>0.00115739968547451</v>
+        <v>0.004852229787785363</v>
       </c>
       <c r="T26">
-        <v>0.00108452871117026</v>
+        <v>0.004448778186482779</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.714673</v>
       </c>
       <c r="O27">
-        <v>0.02271500130313451</v>
+        <v>0.01743871075452517</v>
       </c>
       <c r="P27">
-        <v>0.03096984518609151</v>
+        <v>0.02364286342136175</v>
       </c>
       <c r="Q27">
-        <v>5.439156321940333</v>
+        <v>10.36382344217811</v>
       </c>
       <c r="R27">
-        <v>48.952406897463</v>
+        <v>93.27441097960299</v>
       </c>
       <c r="S27">
-        <v>0.0007088921559094957</v>
+        <v>0.000743825180097624</v>
       </c>
       <c r="T27">
-        <v>0.000996389457145957</v>
+        <v>0.001022966774194736</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.044414666666667</v>
+        <v>0.9237056666666666</v>
       </c>
       <c r="N28">
-        <v>3.133244</v>
+        <v>2.771117</v>
       </c>
       <c r="O28">
-        <v>0.09958630246705612</v>
+        <v>0.06761792852108241</v>
       </c>
       <c r="P28">
-        <v>0.1357768960213274</v>
+        <v>0.09167429125713955</v>
       </c>
       <c r="Q28">
-        <v>23.84615608926267</v>
+        <v>40.18532577223188</v>
       </c>
       <c r="R28">
-        <v>214.615404803364</v>
+        <v>361.6679319500869</v>
       </c>
       <c r="S28">
-        <v>0.003107899828523664</v>
+        <v>0.002884153454232338</v>
       </c>
       <c r="T28">
-        <v>0.00436833529217674</v>
+        <v>0.003966514221757635</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.997239</v>
+        <v>9.200113</v>
       </c>
       <c r="N29">
-        <v>15.994478</v>
+        <v>18.400226</v>
       </c>
       <c r="O29">
-        <v>0.7625471830045831</v>
+        <v>0.67347490187518</v>
       </c>
       <c r="P29">
-        <v>0.6931093066232342</v>
+        <v>0.6087175956559004</v>
       </c>
       <c r="Q29">
-        <v>182.593576635403</v>
+        <v>400.2460430718143</v>
       </c>
       <c r="R29">
-        <v>1095.561459812418</v>
+        <v>2401.476258430886</v>
       </c>
       <c r="S29">
-        <v>0.02379765289594052</v>
+        <v>0.02872618264217408</v>
       </c>
       <c r="T29">
-        <v>0.02229933025558956</v>
+        <v>0.0263376674866325</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4452603333333334</v>
+        <v>1.05173</v>
       </c>
       <c r="N30">
-        <v>1.335781</v>
+        <v>3.15519</v>
       </c>
       <c r="O30">
-        <v>0.0424561542911266</v>
+        <v>0.07698968029514236</v>
       </c>
       <c r="P30">
-        <v>0.05788511777067625</v>
+        <v>0.1043802217775771</v>
       </c>
       <c r="Q30">
-        <v>10.16621821571233</v>
+        <v>45.75495658367667</v>
       </c>
       <c r="R30">
-        <v>91.49596394141101</v>
+        <v>411.79460925309</v>
       </c>
       <c r="S30">
-        <v>0.001324976140015003</v>
+        <v>0.003283893151122573</v>
       </c>
       <c r="T30">
-        <v>0.001862331591449353</v>
+        <v>0.004516267630470844</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.373449</v>
+        <v>0.692869</v>
       </c>
       <c r="N31">
-        <v>1.120347</v>
+        <v>2.078607</v>
       </c>
       <c r="O31">
-        <v>0.03560884987254708</v>
+        <v>0.05072001635059852</v>
       </c>
       <c r="P31">
-        <v>0.04854943889681304</v>
+        <v>0.06876462579065737</v>
       </c>
       <c r="Q31">
-        <v>8.526616323572998</v>
+        <v>30.14289885538633</v>
       </c>
       <c r="R31">
-        <v>76.739546912157</v>
+        <v>271.286089698477</v>
       </c>
       <c r="S31">
-        <v>0.001111284741688487</v>
+        <v>0.00216339532363358</v>
       </c>
       <c r="T31">
-        <v>0.001561975811518137</v>
+        <v>0.002975271064680767</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.388946</v>
+        <v>1.55402</v>
       </c>
       <c r="N32">
-        <v>0.777892</v>
+        <v>3.10804</v>
       </c>
       <c r="O32">
-        <v>0.03708650906155244</v>
+        <v>0.1137587622034715</v>
       </c>
       <c r="P32">
-        <v>0.03370939550185763</v>
+        <v>0.1028204020973636</v>
       </c>
       <c r="Q32">
-        <v>18.956175552124</v>
+        <v>308.5523752419333</v>
       </c>
       <c r="R32">
-        <v>113.737053312744</v>
+        <v>1851.3142514516</v>
       </c>
       <c r="S32">
-        <v>0.00247058245057945</v>
+        <v>0.02214520802716859</v>
       </c>
       <c r="T32">
-        <v>0.002315032252551795</v>
+        <v>0.02030388557738868</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.714673</v>
       </c>
       <c r="O33">
-        <v>0.02271500130313451</v>
+        <v>0.01743871075452517</v>
       </c>
       <c r="P33">
-        <v>0.03096984518609151</v>
+        <v>0.02364286342136175</v>
       </c>
       <c r="Q33">
-        <v>11.61040937162067</v>
+        <v>47.29970263601889</v>
       </c>
       <c r="R33">
-        <v>104.493684344586</v>
+        <v>425.69732372417</v>
       </c>
       <c r="S33">
-        <v>0.001513199408746516</v>
+        <v>0.003394761598177771</v>
       </c>
       <c r="T33">
-        <v>0.002126890423128081</v>
+        <v>0.004668742621474981</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.044414666666667</v>
+        <v>0.9237056666666666</v>
       </c>
       <c r="N34">
-        <v>3.133244</v>
+        <v>2.771117</v>
       </c>
       <c r="O34">
-        <v>0.09958630246705612</v>
+        <v>0.06761792852108241</v>
       </c>
       <c r="P34">
-        <v>0.1357768960213274</v>
+        <v>0.09167429125713955</v>
       </c>
       <c r="Q34">
-        <v>50.90194466724533</v>
+        <v>183.4027731138811</v>
       </c>
       <c r="R34">
-        <v>458.1175020052081</v>
+        <v>1650.62495802493</v>
       </c>
       <c r="S34">
-        <v>0.006634115138333994</v>
+        <v>0.01316305719630879</v>
       </c>
       <c r="T34">
-        <v>0.009324637501239757</v>
+        <v>0.01810286948995398</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.997239</v>
+        <v>9.200113</v>
       </c>
       <c r="N35">
-        <v>15.994478</v>
+        <v>18.400226</v>
       </c>
       <c r="O35">
-        <v>0.7625471830045831</v>
+        <v>0.67347490187518</v>
       </c>
       <c r="P35">
-        <v>0.6931093066232342</v>
+        <v>0.6087175956559004</v>
       </c>
       <c r="Q35">
-        <v>389.763788331266</v>
+        <v>1826.692525607257</v>
       </c>
       <c r="R35">
-        <v>2338.582729987596</v>
+        <v>10960.15515364354</v>
       </c>
       <c r="S35">
-        <v>0.05079840987306607</v>
+        <v>0.1311041146564768</v>
       </c>
       <c r="T35">
-        <v>0.0476000941425418</v>
+        <v>0.120203112991497</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.4452603333333334</v>
+        <v>1.05173</v>
       </c>
       <c r="N36">
-        <v>1.335781</v>
+        <v>3.15519</v>
       </c>
       <c r="O36">
-        <v>0.0424561542911266</v>
+        <v>0.07698968029514236</v>
       </c>
       <c r="P36">
-        <v>0.05788511777067625</v>
+        <v>0.1043802217775771</v>
       </c>
       <c r="Q36">
-        <v>21.70078377220467</v>
+        <v>208.8221448972334</v>
       </c>
       <c r="R36">
-        <v>195.307053949842</v>
+        <v>1879.3993040751</v>
       </c>
       <c r="S36">
-        <v>0.002828290727948069</v>
+        <v>0.01498743879642091</v>
       </c>
       <c r="T36">
-        <v>0.003975328319800035</v>
+        <v>0.02061190227118087</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.373449</v>
+        <v>0.692869</v>
       </c>
       <c r="N37">
-        <v>1.120347</v>
+        <v>2.078607</v>
       </c>
       <c r="O37">
-        <v>0.03560884987254708</v>
+        <v>0.05072001635059852</v>
       </c>
       <c r="P37">
-        <v>0.04854943889681304</v>
+        <v>0.06876462579065737</v>
       </c>
       <c r="Q37">
-        <v>18.200893707006</v>
+        <v>137.5698997963367</v>
       </c>
       <c r="R37">
-        <v>163.808043363054</v>
+        <v>1238.12909816703</v>
       </c>
       <c r="S37">
-        <v>0.002372145607838736</v>
+        <v>0.009873571859162865</v>
       </c>
       <c r="T37">
-        <v>0.003334189629215425</v>
+        <v>0.01357891104630544</v>
       </c>
     </row>
   </sheetData>
